--- a/temporary_directory/Polish.xlsx
+++ b/temporary_directory/Polish.xlsx
@@ -20,162 +20,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Infinitive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywać się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywam się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywasz się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/She/It is called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywa się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywamy się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You (plural) are called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywacie się</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They are called</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazywają się</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Infinitive_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinitive_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_Singular_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_Singular_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third_Singular_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_Plural_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_Plural_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third_Plural_Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_Singular_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_Singular_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third_Singular_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First_Plural_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second_Plural_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third_Plural_Pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">być</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jestem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesteś</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesteśmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jesteście</t>
+  </si>
+  <si>
+    <t xml:space="preserve">są</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to have</t>
   </si>
   <si>
     <t xml:space="preserve">mieć</t>
   </si>
   <si>
-    <t xml:space="preserve">I have</t>
+    <t xml:space="preserve">have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has</t>
   </si>
   <si>
     <t xml:space="preserve">mam</t>
   </si>
   <si>
-    <t xml:space="preserve">You have</t>
-  </si>
-  <si>
     <t xml:space="preserve">masz</t>
   </si>
   <si>
-    <t xml:space="preserve">He/She/It has</t>
-  </si>
-  <si>
     <t xml:space="preserve">ma</t>
   </si>
   <si>
-    <t xml:space="preserve">We have</t>
-  </si>
-  <si>
     <t xml:space="preserve">mamy</t>
   </si>
   <si>
-    <t xml:space="preserve">You (plural) have</t>
-  </si>
-  <si>
     <t xml:space="preserve">macie</t>
   </si>
   <si>
-    <t xml:space="preserve">They have</t>
-  </si>
-  <si>
     <t xml:space="preserve">mają</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robić</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do/make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robię</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You do/make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robisz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He/She/It does/makes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We do/make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robimy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You (plural) do/make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robicie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They do/make</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robią</t>
   </si>
 </sst>
 </file>
@@ -380,13 +329,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -428,129 +377,112 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
